--- a/results/index_week_daily_pct.xlsx
+++ b/results/index_week_daily_pct.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11028"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11028" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="30">
   <si>
     <t>上证综指</t>
   </si>
@@ -118,13 +118,17 @@
     <t>2000年至今周一至周五各大指数日涨跌幅（百分比）的平均值统计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>2010年至今周一至周五各大指数日涨跌幅（百分比）的平均值统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -185,19 +189,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -485,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1917,14 +1921,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O14"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
@@ -1948,25 +1964,25 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1974,46 +1990,46 @@
         <v>14</v>
       </c>
       <c r="B3" s="1">
-        <v>0.11268300000000001</v>
+        <v>4.83098E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>9.2862200000000006E-2</v>
+        <v>2.4619800000000001E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>0.24043300000000001</v>
+        <v>0.11425</v>
       </c>
       <c r="E3" s="1">
         <v>0.16442599999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>0.140768</v>
+        <v>2.2973500000000001E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>0.19314899999999999</v>
+        <v>5.5576899999999999E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>0.26305000000000001</v>
+        <v>0.114326</v>
       </c>
       <c r="I3" s="5">
-        <v>0.172482</v>
+        <v>7.7783000000000005E-2</v>
       </c>
       <c r="J3" s="5">
+        <v>5.5576899999999999E-2</v>
+      </c>
+      <c r="K3" s="5">
         <v>0.16442599999999999</v>
       </c>
-      <c r="K3" s="5">
-        <v>0.26305000000000001</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M3" s="5">
-        <v>9.2862E-2</v>
+        <v>2.2974000000000001E-2</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O3" s="5">
-        <v>5.8837E-2</v>
+        <v>4.9806000000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2021,31 +2037,31 @@
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>1.7037699999999999E-2</v>
+        <v>3.5742500000000003E-2</v>
       </c>
       <c r="C4" s="1">
-        <v>4.9461499999999999E-2</v>
+        <v>7.1675799999999998E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>1.43921E-2</v>
+        <v>8.4293800000000002E-2</v>
       </c>
       <c r="E4" s="1">
         <v>0.114582</v>
       </c>
       <c r="F4" s="1">
-        <v>-4.7161300000000003E-2</v>
+        <v>3.2600700000000003E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>-1.73829E-2</v>
+        <v>4.71315E-2</v>
       </c>
       <c r="H4" s="1">
-        <v>4.5916999999999999E-2</v>
+        <v>8.2715499999999997E-2</v>
       </c>
       <c r="I4" s="5">
-        <v>2.5264000000000002E-2</v>
+        <v>6.6962999999999995E-2</v>
       </c>
       <c r="J4" s="5">
-        <v>1.7037699999999999E-2</v>
+        <v>7.1675799999999998E-2</v>
       </c>
       <c r="K4" s="5">
         <v>0.114582</v>
@@ -2054,13 +2070,13 @@
         <v>3</v>
       </c>
       <c r="M4" s="5">
-        <v>-4.7161000000000002E-2</v>
+        <v>3.2600999999999998E-2</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O4" s="5">
-        <v>4.8166E-2</v>
+        <v>2.7740999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2068,46 +2084,46 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>8.3500000000000005E-2</v>
+        <v>2.9367899999999999E-2</v>
       </c>
       <c r="C5" s="1">
-        <v>0.100422</v>
+        <v>3.26959E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>0.13492499999999999</v>
+        <v>7.8857399999999994E-2</v>
       </c>
       <c r="E5" s="1">
         <v>7.3012300000000002E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>8.0841999999999997E-2</v>
+        <v>2.8782600000000001E-3</v>
       </c>
       <c r="G5" s="1">
-        <v>0.10735</v>
+        <v>2.1175099999999999E-2</v>
       </c>
       <c r="H5" s="1">
-        <v>0.189167</v>
+        <v>9.4177700000000003E-2</v>
       </c>
       <c r="I5" s="5">
-        <v>0.109888</v>
+        <v>4.7452000000000001E-2</v>
       </c>
       <c r="J5" s="5">
-        <v>0.100422</v>
+        <v>3.26959E-2</v>
       </c>
       <c r="K5" s="5">
-        <v>0.189167</v>
+        <v>9.4177999999999998E-2</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="5">
-        <v>7.3011999999999994E-2</v>
+        <v>2.8779999999999999E-3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" s="5">
-        <v>3.7622000000000003E-2</v>
+        <v>3.1724000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2115,46 +2131,46 @@
         <v>17</v>
       </c>
       <c r="B6" s="1">
-        <v>-0.117407</v>
+        <v>-0.16805100000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>-0.12016</v>
+        <v>-0.21226100000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-0.16445899999999999</v>
+        <v>-0.23907</v>
       </c>
       <c r="E6" s="1">
         <v>-0.22614500000000001</v>
       </c>
       <c r="F6" s="1">
-        <v>-9.9844799999999997E-2</v>
+        <v>-0.140185</v>
       </c>
       <c r="G6" s="1">
-        <v>-0.12764500000000001</v>
+        <v>-0.17827000000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>-0.179448</v>
+        <v>-0.234266</v>
       </c>
       <c r="I6" s="5">
-        <v>-0.147873</v>
+        <v>-0.19975000000000001</v>
       </c>
       <c r="J6" s="5">
-        <v>-0.12764500000000001</v>
+        <v>-0.21226100000000001</v>
       </c>
       <c r="K6" s="5">
-        <v>-9.9845000000000003E-2</v>
+        <v>-0.140185</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="5">
-        <v>-0.22614500000000001</v>
+        <v>-0.23907</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6" s="5">
-        <v>4.1076000000000001E-2</v>
+        <v>3.5061000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2162,72 +2178,72 @@
         <v>18</v>
       </c>
       <c r="B7" s="1">
-        <v>5.1338200000000001E-2</v>
+        <v>9.0655399999999997E-2</v>
       </c>
       <c r="C7" s="1">
-        <v>6.5394800000000003E-2</v>
+        <v>7.5680600000000001E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>9.2426700000000001E-2</v>
+        <v>5.2080399999999999E-2</v>
       </c>
       <c r="E7" s="1">
         <v>9.8888100000000007E-2</v>
       </c>
       <c r="F7" s="1">
-        <v>0.14754</v>
+        <v>0.17171400000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>0.123541</v>
+        <v>0.131721</v>
       </c>
       <c r="H7" s="1">
-        <v>2.7929900000000001E-2</v>
+        <v>5.78884E-2</v>
       </c>
       <c r="I7" s="5">
-        <v>8.6722999999999995E-2</v>
+        <v>9.6947000000000005E-2</v>
       </c>
       <c r="J7" s="5">
-        <v>9.2426700000000001E-2</v>
+        <v>9.0655399999999997E-2</v>
       </c>
       <c r="K7" s="5">
-        <v>0.14754</v>
+        <v>0.17171400000000001</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="5">
-        <v>2.793E-2</v>
+        <v>5.2080000000000001E-2</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O7" s="5">
-        <v>3.8542E-2</v>
+        <v>3.934E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>2.9430499999999998E-2</v>
+        <v>7.2049599999999998E-3</v>
       </c>
       <c r="C8" s="3">
-        <v>3.7595999999999997E-2</v>
+        <v>-1.51782E-3</v>
       </c>
       <c r="D8" s="3">
-        <v>6.3543600000000006E-2</v>
+        <v>1.8082299999999999E-2</v>
       </c>
       <c r="E8" s="3">
         <v>4.4952699999999998E-2</v>
       </c>
       <c r="F8" s="3">
-        <v>4.44289E-2</v>
+        <v>1.79962E-2</v>
       </c>
       <c r="G8" s="3">
-        <v>5.5802299999999999E-2</v>
+        <v>1.5467E-2</v>
       </c>
       <c r="H8" s="3">
-        <v>6.9323399999999993E-2</v>
+        <v>2.29684E-2</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2235,28 +2251,28 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>5.1338200000000001E-2</v>
+        <v>3.5742500000000003E-2</v>
       </c>
       <c r="C9" s="3">
-        <v>6.5394800000000003E-2</v>
+        <v>3.26959E-2</v>
       </c>
       <c r="D9" s="3">
-        <v>9.2426700000000001E-2</v>
+        <v>7.8857399999999994E-2</v>
       </c>
       <c r="E9" s="3">
         <v>9.8888100000000007E-2</v>
       </c>
       <c r="F9" s="3">
-        <v>8.0841999999999997E-2</v>
+        <v>2.2973500000000001E-2</v>
       </c>
       <c r="G9" s="3">
-        <v>0.10735</v>
+        <v>4.71315E-2</v>
       </c>
       <c r="H9" s="3">
-        <v>4.5916999999999999E-2</v>
+        <v>8.2715499999999997E-2</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2264,28 +2280,28 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>0.11268300000000001</v>
+        <v>9.0655399999999997E-2</v>
       </c>
       <c r="C10" s="3">
-        <v>0.100422</v>
+        <v>7.5680600000000001E-2</v>
       </c>
       <c r="D10" s="3">
-        <v>0.24043300000000001</v>
+        <v>0.11425</v>
       </c>
       <c r="E10" s="3">
         <v>0.16442599999999999</v>
       </c>
       <c r="F10" s="3">
-        <v>0.14754</v>
+        <v>0.17171400000000001</v>
       </c>
       <c r="G10" s="3">
-        <v>0.19314899999999999</v>
+        <v>0.131721</v>
       </c>
       <c r="H10" s="3">
-        <v>0.26305000000000001</v>
+        <v>0.114326</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2293,13 +2309,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>14</v>
@@ -2311,7 +2327,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>14</v>
@@ -2319,33 +2335,33 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>-0.117407</v>
+        <v>-0.16805100000000001</v>
       </c>
       <c r="C12" s="3">
-        <v>-0.12016</v>
+        <v>-0.21226100000000001</v>
       </c>
       <c r="D12" s="3">
-        <v>-0.16445899999999999</v>
+        <v>-0.23907</v>
       </c>
       <c r="E12" s="3">
         <v>-0.22614500000000001</v>
       </c>
       <c r="F12" s="3">
-        <v>-9.9844799999999997E-2</v>
+        <v>-0.140185</v>
       </c>
       <c r="G12" s="3">
-        <v>-0.12764500000000001</v>
+        <v>-0.17827000000000001</v>
       </c>
       <c r="H12" s="3">
-        <v>-0.179448</v>
+        <v>-0.234266</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>17</v>
@@ -2371,31 +2387,956 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>8.0061499999999994E-2</v>
+        <v>9.0192800000000004E-2</v>
       </c>
       <c r="C14" s="3">
-        <v>8.0996399999999996E-2</v>
+        <v>0.10731599999999999</v>
       </c>
       <c r="D14" s="3">
-        <v>0.13536699999999999</v>
+        <v>0.13008400000000001</v>
       </c>
       <c r="E14" s="3">
         <v>0.138789</v>
       </c>
       <c r="F14" s="3">
-        <v>0.100442</v>
+        <v>9.9113000000000007E-2</v>
       </c>
       <c r="G14" s="3">
-        <v>0.114121</v>
+        <v>0.103627</v>
       </c>
       <c r="H14" s="3">
-        <v>0.15234200000000001</v>
+        <v>0.12990399999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>0.128384</v>
+      </c>
+      <c r="C18">
+        <v>9.9979799999999994E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.29441600000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.27818500000000002</v>
+      </c>
+      <c r="F18">
+        <v>7.5220099999999998E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.130274</v>
+      </c>
+      <c r="H18">
+        <v>0.39699299999999998</v>
+      </c>
+      <c r="I18">
+        <v>0.200493</v>
+      </c>
+      <c r="J18">
+        <v>0.130274</v>
+      </c>
+      <c r="K18">
+        <v>0.39699299999999998</v>
+      </c>
+      <c r="L18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>7.5219999999999995E-2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>0.113009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>0.100061</v>
+      </c>
+      <c r="C19">
+        <v>0.15112600000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.146343</v>
+      </c>
+      <c r="E19">
+        <v>0.106517</v>
+      </c>
+      <c r="F19">
+        <v>2.84937E-2</v>
+      </c>
+      <c r="G19">
+        <v>8.9593000000000006E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.264268</v>
+      </c>
+      <c r="I19">
+        <v>0.12662899999999999</v>
+      </c>
+      <c r="J19">
+        <v>0.106517</v>
+      </c>
+      <c r="K19">
+        <v>0.264268</v>
+      </c>
+      <c r="L19" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>2.8493999999999998E-2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>6.7660999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>2.2513600000000002E-2</v>
+      </c>
+      <c r="C20">
+        <v>-2.2642800000000001E-2</v>
+      </c>
+      <c r="D20">
+        <v>8.0042199999999994E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.13133400000000001</v>
+      </c>
+      <c r="F20">
+        <v>-5.5259299999999997E-2</v>
+      </c>
+      <c r="G20">
+        <v>-3.0976900000000002E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.11916499999999999</v>
+      </c>
+      <c r="I20">
+        <v>3.4882000000000003E-2</v>
+      </c>
+      <c r="J20">
+        <v>2.2513600000000002E-2</v>
+      </c>
+      <c r="K20">
+        <v>0.13133400000000001</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>-5.5259000000000003E-2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>7.0071999999999995E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>-0.16828499999999999</v>
+      </c>
+      <c r="C21">
+        <v>-0.23834900000000001</v>
+      </c>
+      <c r="D21">
+        <v>-0.158137</v>
+      </c>
+      <c r="E21">
+        <v>-0.13289300000000001</v>
+      </c>
+      <c r="F21">
+        <v>-0.18598000000000001</v>
+      </c>
+      <c r="G21">
+        <v>-0.19429299999999999</v>
+      </c>
+      <c r="H21">
+        <v>-7.3513499999999996E-2</v>
+      </c>
+      <c r="I21">
+        <v>-0.164493</v>
+      </c>
+      <c r="J21">
+        <v>-0.16828499999999999</v>
+      </c>
+      <c r="K21">
+        <v>-7.3512999999999995E-2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>-0.23834900000000001</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>4.8009999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>9.9517800000000003E-2</v>
+      </c>
+      <c r="C22">
+        <v>9.1960899999999998E-2</v>
+      </c>
+      <c r="D22">
+        <v>9.9786299999999994E-2</v>
+      </c>
+      <c r="E22">
+        <v>-2.7920199999999999E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.126053</v>
+      </c>
+      <c r="G22">
+        <v>0.134043</v>
+      </c>
+      <c r="H22">
+        <v>0.12806000000000001</v>
+      </c>
+      <c r="I22">
+        <v>9.3071000000000001E-2</v>
+      </c>
+      <c r="J22">
+        <v>9.9786299999999994E-2</v>
+      </c>
+      <c r="K22">
+        <v>0.134043</v>
+      </c>
+      <c r="L22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>-2.792E-2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>5.1709999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>3.6438100000000001E-2</v>
+      </c>
+      <c r="C23">
+        <v>1.6414999999999999E-2</v>
+      </c>
+      <c r="D23">
+        <v>9.2490100000000006E-2</v>
+      </c>
+      <c r="E23">
+        <v>7.1044599999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>-2.2945600000000002E-3</v>
+      </c>
+      <c r="G23">
+        <v>2.5727900000000001E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.166995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>9.9517800000000003E-2</v>
+      </c>
+      <c r="C24">
+        <v>9.1960899999999998E-2</v>
+      </c>
+      <c r="D24">
+        <v>9.9786299999999994E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.106517</v>
+      </c>
+      <c r="F24">
+        <v>2.84937E-2</v>
+      </c>
+      <c r="G24">
+        <v>8.9593000000000006E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.12806000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>0.128384</v>
+      </c>
+      <c r="C25">
+        <v>0.15112600000000001</v>
+      </c>
+      <c r="D25">
+        <v>0.29441600000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.27818500000000002</v>
+      </c>
+      <c r="F25">
+        <v>0.126053</v>
+      </c>
+      <c r="G25">
+        <v>0.134043</v>
+      </c>
+      <c r="H25">
+        <v>0.39699299999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>-0.16828499999999999</v>
+      </c>
+      <c r="C27">
+        <v>-0.23834900000000001</v>
+      </c>
+      <c r="D27">
+        <v>-0.158137</v>
+      </c>
+      <c r="E27">
+        <v>-0.13289300000000001</v>
+      </c>
+      <c r="F27">
+        <v>-0.18598000000000001</v>
+      </c>
+      <c r="G27">
+        <v>-0.19429299999999999</v>
+      </c>
+      <c r="H27">
+        <v>-7.3513499999999996E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>0.108246</v>
+      </c>
+      <c r="C29">
+        <v>0.13947599999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.14607999999999999</v>
+      </c>
+      <c r="E29">
+        <v>0.140844</v>
+      </c>
+      <c r="F29">
+        <v>0.10952199999999999</v>
+      </c>
+      <c r="G29">
+        <v>0.125192</v>
+      </c>
+      <c r="H29">
+        <v>0.15748599999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" t="s">
+        <v>11</v>
+      </c>
+      <c r="N34" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>1.6723699999999999</v>
+      </c>
+      <c r="C35">
+        <v>2.01078</v>
+      </c>
+      <c r="D35">
+        <v>2.0266600000000001</v>
+      </c>
+      <c r="E35">
+        <v>2.4108299999999998</v>
+      </c>
+      <c r="F35">
+        <v>1.8595299999999999</v>
+      </c>
+      <c r="G35">
+        <v>1.7990699999999999</v>
+      </c>
+      <c r="H35">
+        <v>2.05064</v>
+      </c>
+      <c r="I35">
+        <v>1.9756959999999999</v>
+      </c>
+      <c r="J35">
+        <v>2.01078</v>
+      </c>
+      <c r="K35">
+        <v>2.4108320000000001</v>
+      </c>
+      <c r="L35" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>1.6723669999999999</v>
+      </c>
+      <c r="N35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0.21892200000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>1.3328</v>
+      </c>
+      <c r="C36">
+        <v>1.58989</v>
+      </c>
+      <c r="D36">
+        <v>1.6522699999999999</v>
+      </c>
+      <c r="E36">
+        <v>1.97973</v>
+      </c>
+      <c r="F36">
+        <v>1.4410799999999999</v>
+      </c>
+      <c r="G36">
+        <v>1.4114800000000001</v>
+      </c>
+      <c r="H36">
+        <v>1.71963</v>
+      </c>
+      <c r="I36">
+        <v>1.589553</v>
+      </c>
+      <c r="J36">
+        <v>1.58989</v>
+      </c>
+      <c r="K36">
+        <v>1.97973</v>
+      </c>
+      <c r="L36" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>1.3327960000000001</v>
+      </c>
+      <c r="N36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0.20451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>1.17431</v>
+      </c>
+      <c r="C37">
+        <v>1.43388</v>
+      </c>
+      <c r="D37">
+        <v>1.48804</v>
+      </c>
+      <c r="E37">
+        <v>1.85215</v>
+      </c>
+      <c r="F37">
+        <v>1.2944599999999999</v>
+      </c>
+      <c r="G37">
+        <v>1.2856399999999999</v>
+      </c>
+      <c r="H37">
+        <v>1.5119100000000001</v>
+      </c>
+      <c r="I37">
+        <v>1.434339</v>
+      </c>
+      <c r="J37">
+        <v>1.43388</v>
+      </c>
+      <c r="K37">
+        <v>1.8521460000000001</v>
+      </c>
+      <c r="L37" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>1.1743079999999999</v>
+      </c>
+      <c r="N37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0.20450599999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>1.33857</v>
+      </c>
+      <c r="C38">
+        <v>1.5589200000000001</v>
+      </c>
+      <c r="D38">
+        <v>1.57796</v>
+      </c>
+      <c r="E38">
+        <v>1.85995</v>
+      </c>
+      <c r="F38">
+        <v>1.4953099999999999</v>
+      </c>
+      <c r="G38">
+        <v>1.4377500000000001</v>
+      </c>
+      <c r="H38">
+        <v>1.6167800000000001</v>
+      </c>
+      <c r="I38">
+        <v>1.555034</v>
+      </c>
+      <c r="J38">
+        <v>1.5589200000000001</v>
+      </c>
+      <c r="K38">
+        <v>1.859945</v>
+      </c>
+      <c r="L38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>1.3385720000000001</v>
+      </c>
+      <c r="N38" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0.151894</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>1.3140099999999999</v>
+      </c>
+      <c r="C39">
+        <v>1.54518</v>
+      </c>
+      <c r="D39">
+        <v>1.5931299999999999</v>
+      </c>
+      <c r="E39">
+        <v>1.8760300000000001</v>
+      </c>
+      <c r="F39">
+        <v>1.39638</v>
+      </c>
+      <c r="G39">
+        <v>1.4088099999999999</v>
+      </c>
+      <c r="H39">
+        <v>1.6127899999999999</v>
+      </c>
+      <c r="I39">
+        <v>1.5351900000000001</v>
+      </c>
+      <c r="J39">
+        <v>1.54518</v>
+      </c>
+      <c r="K39">
+        <v>1.8760289999999999</v>
+      </c>
+      <c r="L39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>1.3140099999999999</v>
+      </c>
+      <c r="N39" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0.173128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>1.3664099999999999</v>
+      </c>
+      <c r="C40">
+        <v>1.6277299999999999</v>
+      </c>
+      <c r="D40">
+        <v>1.66761</v>
+      </c>
+      <c r="E40">
+        <v>1.9957400000000001</v>
+      </c>
+      <c r="F40">
+        <v>1.49735</v>
+      </c>
+      <c r="G40">
+        <v>1.46855</v>
+      </c>
+      <c r="H40">
+        <v>1.70235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>1.3328</v>
+      </c>
+      <c r="C41">
+        <v>1.5589200000000001</v>
+      </c>
+      <c r="D41">
+        <v>1.5931299999999999</v>
+      </c>
+      <c r="E41">
+        <v>1.8760300000000001</v>
+      </c>
+      <c r="F41">
+        <v>1.4410799999999999</v>
+      </c>
+      <c r="G41">
+        <v>1.4114800000000001</v>
+      </c>
+      <c r="H41">
+        <v>1.6167800000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>1.6723699999999999</v>
+      </c>
+      <c r="C42">
+        <v>2.01078</v>
+      </c>
+      <c r="D42">
+        <v>2.0266600000000001</v>
+      </c>
+      <c r="E42">
+        <v>2.4108299999999998</v>
+      </c>
+      <c r="F42">
+        <v>1.8595299999999999</v>
+      </c>
+      <c r="G42">
+        <v>1.7990699999999999</v>
+      </c>
+      <c r="H42">
+        <v>2.05064</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>1.17431</v>
+      </c>
+      <c r="C44">
+        <v>1.43388</v>
+      </c>
+      <c r="D44">
+        <v>1.48804</v>
+      </c>
+      <c r="E44">
+        <v>1.85215</v>
+      </c>
+      <c r="F44">
+        <v>1.2944599999999999</v>
+      </c>
+      <c r="G44">
+        <v>1.2856399999999999</v>
+      </c>
+      <c r="H44">
+        <v>1.5119100000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>0.16441600000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.19863900000000001</v>
+      </c>
+      <c r="D46">
+        <v>0.18707399999999999</v>
+      </c>
+      <c r="E46">
+        <v>0.21257799999999999</v>
+      </c>
+      <c r="F46">
+        <v>0.19272</v>
+      </c>
+      <c r="G46">
+        <v>0.17347799999999999</v>
+      </c>
+      <c r="H46">
+        <v>0.18612500000000001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
